--- a/biology/Zoologie/Ctenochasmatidae/Ctenochasmatidae.xlsx
+++ b/biology/Zoologie/Ctenochasmatidae/Ctenochasmatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctenochasmatidae forment une famille fossile de ptérosaures de la super-famille des Ctenochasmatoidea et du sous-ordre des Pterodactyloidea. Ils ont vécu au Jurassique supérieur et au Crétacé inférieur.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wikispecies liste deux sous-familles et 10 genres, dont deux de classement incertain :
 Ctenochasmatinae
@@ -554,9 +568,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude phylogénétique réalisée par B. Andres et ses collègues en 2014, montre la position des différents genres de cténochasmatidés au sein des deux sous-familles, les cténochasmatinés et les gnathosaurinés, comme le montre leur cladogramme ci-dessous[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude phylogénétique réalisée par B. Andres et ses collègues en 2014, montre la position des différents genres de cténochasmatidés au sein des deux sous-familles, les cténochasmatinés et les gnathosaurinés, comme le montre leur cladogramme ci-dessous :
 </t>
         </is>
       </c>
